--- a/medicine/Enfance/Isol/Isol.xlsx
+++ b/medicine/Enfance/Isol/Isol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marisol Misenta, mieux connue sous le nom d' Isol (née à Buenos Aires en 1972 ) est une peintre, illustratrice et auteure de littérature jeunesse argentine. Elle est également chanteuse et a travaillé dans le domaine de la musique pop et classique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marisol Misenta, mieux connue sous le nom d' Isol (née à Buenos Aires en 1972 ) est une peintre, illustratrice et auteure de littérature jeunesse argentine. Elle est également chanteuse et a travaillé dans le domaine de la musique pop et classique.
 </t>
         </is>
       </c>
@@ -513,15 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Études
-Elle a grandi dans le quartier Caballito de la ville de Buenos Aires dans une famille très influencée par l'art et les livres. Sa mère chante de la musique baroque et son père est écrivain et peintre. Son frère Federico Zypce est musicien et tous deux ont formé le duo musical SIMA.
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a grandi dans le quartier Caballito de la ville de Buenos Aires dans une famille très influencée par l'art et les livres. Sa mère chante de la musique baroque et son père est écrivain et peintre. Son frère Federico Zypce est musicien et tous deux ont formé le duo musical SIMA.
 Elle a suivi l'enseignement des beaux-arts à l'école nationale Rogelio Yrurtia puis à l'Université de Buenos Aires, qu'elle a quitté pour se consacrer pleinement à travailler comme illustratrice pour la presse et auteure d'albums pour enfants, comme une synthèse naturelle de sa passion pour la bande dessinée d'auteur, la littérature et l'art.
-Œuvre littéraire
-Dans son œuvre littéraire, elle aime travailler avec l'humour et l'absurde et définit son style marqué par la ligne, avec des dessins informels, influencé par la bande dessinée dans l'expressivité des personnages. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Isol</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isol</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œuvre littéraire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son œuvre littéraire, elle aime travailler avec l'humour et l'absurde et définit son style marqué par la ligne, avec des dessins informels, influencé par la bande dessinée dans l'expressivité des personnages. 
 Ses livres, avec son style personnel de raconter des histoires dessinées (candides mais ironiques en même temps), ont été publiés au Mexique, en Espagne, en France, en Suisse, en Corée, aux États-Unis et en Argentine .
 Son premier livre, Life of Dogs, a été publié en 1997, après avoir reçu une mention honorable dans le cadre du concours "Au bord du vent", organisé par le Fonds de la culture économique du Mexique. De là, elle a continué à publier des livres en tant qu'auteure à plein temps, tout en illustrant des textes d'auteurs tels que Jorge Luján et Paul Auster. Son livre Petit, le monstre a inspiré une série animée pour enfants .
-Prix et mentions
-Prix Astrid Lindgren en 2013 ALMA (Conseil national suédois de la culture) pour tout son travail.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix et mentions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Astrid Lindgren en 2013 ALMA (Conseil national suédois de la culture) pour tout son travail.
 Mention spéciale du Prix Hans Christian Andersen : 2006 et 2007 (choisi parmi les cinq illustrateurs de livres pour les enfants du monde)
 IBBY / International Board of Books for Young People, Suisse.
 Nommée au Banco del Libro de Venezuela, membre d'IBBY, pour le Prix commémoratif Astrid Lindgren 2008 (Conseil national de la culture de Suède)
@@ -532,9 +619,43 @@
 Mention spéciale The White Ravens List 2003 (Internationalen Jugendbibliothek, Munich) pour le livre The Christmas Carol d'Auggie Wren (texte de Paul Auster, éditorial sud-américain, 2003).
 Sélection The White Ravens 2002 pour le livre El Globo et en 2004 pour Secreto de familia (tous deux édités par FCE México).
 Premier prix d'illustration au Concours international de design de presse (Porto Alegre, Brésil, 1998).
-Mention d'honneur au concours "Au bord du vent" (organisé par le Fonds de la culture économique) en 1997.
-Expositions
-Show When Cows Fly Argentina Invité d'honneur à la Foire du livre pour enfants de Bologne, Italie, 2008.
+Mention d'honneur au concours "Au bord du vent" (organisé par le Fonds de la culture économique) en 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Isol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Show When Cows Fly Argentina Invité d'honneur à la Foire du livre pour enfants de Bologne, Italie, 2008.
 Livres d'images pour enfants - L'histoire contemporaine Nordiska Akvarellmuseet, Suède, 2008.
 Sarmede 25th Mostra Internazionale d'Illustrazione per l'Infanzia, Italie, 2007.
 Une bibliothèque imaginaire - Des livres pour enfants qui n’existent pas (encore). Exposition à la Bibliothèque Internationale Jugend, Munich, Allemagne, 2007.
@@ -549,46 +670,126 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Isol</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Isol</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publiés en français [2],[3],[4]
-Auteure et illustratrice
-Secret de famille, texte et illustrations, Isol. Traduction de : Secreto de familia par Catherine Germain. Editions les 400 coups ; diff. le Seuil, 2009
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publiés en français [2],[3],[4]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Secret de famille, texte et illustrations, Isol. Traduction de : Secreto de familia par Catherine Germain. Editions les 400 coups ; diff. le Seuil, 2009
 Nocturno : pour glisser dans le sommeil et faire de beaux rêves en seulement 5 minutes. Syros, 2011, réédité en 2016
 Le bibou, textes et illustrations d'Isol. Adapté de l'espagnol par Laurana Serres-Giardi, traduction de : El menimo. Rue du monde, 2015
-En peu de mots : un abécédaire. Traduction de : Abecedario a mano. Syros, 2017
-Seulement illustratrice
-Mon corps et moi, texte de Jorge Luján ; dessins de Isol, Éd. du Rouergue, 2003
+En peu de mots : un abécédaire. Traduction de : Abecedario a mano. Syros, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isol</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publiés en français [2],[3],[4]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Seulement illustratrice</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mon corps et moi, texte de Jorge Luján ; dessins de Isol, Éd. du Rouergue, 2003
 Tic tac, Jorge Luján, Isol ; traduction, Mireia Porta Anau, Éd. du Rouergue, 2005
 Poème à compter, : numeralia, un poème de Jorge Luján ; dessiné par Isol ; texte français, Julieta Lozano, Syros 2006, réédité en 2014
 Être et paraître, un poème de Jorge Luján ; illustré par Isol, Traduction de : Ser y parecer, la Joie de lire, 2008
-Mes chaussons toutous, poèmes de Jorge Luján, avec la complicité d'enfants latino-américains ; illustrés par Isol ; texte français de Carl Norac, Syros, 2010
-Publiés en espagnol
-Cosas que pasan (Fondo de Cultura Económica, México,1998)
+Mes chaussons toutous, poèmes de Jorge Luján, avec la complicité d'enfants latino-américains ; illustrés par Isol ; texte français de Carl Norac, Syros, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Isol</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isol</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publiés en espagnol</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cosas que pasan (Fondo de Cultura Económica, México,1998)
 Regalo sorpresa (Fondo de Cultura Económica, México,1998).
 Aroma de galletas, con texto de Antonio Fernández Molina, (Media Vaca, España, 1999).
 Intercambio cultural (Fondo de Cultura Económica, 2000)
